--- a/Code/Results/Cases/Case_5_134/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_134/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.98779490604077</v>
+        <v>12.10079634308037</v>
       </c>
       <c r="C2">
-        <v>6.596205518716171</v>
+        <v>7.806623520735326</v>
       </c>
       <c r="D2">
-        <v>5.075079740085639</v>
+        <v>5.532385992127314</v>
       </c>
       <c r="E2">
-        <v>7.693200970167746</v>
+        <v>11.58203427379016</v>
       </c>
       <c r="F2">
-        <v>19.10076352937854</v>
+        <v>26.63433572022027</v>
       </c>
       <c r="I2">
-        <v>15.07619538779932</v>
+        <v>23.91549173517083</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.46662056121333</v>
+        <v>9.43443779019503</v>
       </c>
       <c r="L2">
-        <v>6.903756657919064</v>
+        <v>9.766658145443696</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.40708918401031</v>
+        <v>19.15499729034599</v>
       </c>
       <c r="O2">
-        <v>15.57145222558617</v>
+        <v>23.90746244434957</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.04585297669105</v>
+        <v>11.84286945263442</v>
       </c>
       <c r="C3">
-        <v>6.47858898910149</v>
+        <v>7.771582587444184</v>
       </c>
       <c r="D3">
-        <v>4.921767276060739</v>
+        <v>5.479148507636935</v>
       </c>
       <c r="E3">
-        <v>7.568141603893315</v>
+        <v>11.59103829459997</v>
       </c>
       <c r="F3">
-        <v>18.78000855545607</v>
+        <v>26.66347591426661</v>
       </c>
       <c r="I3">
-        <v>15.15514454120062</v>
+        <v>23.99452504884313</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.79556253814022</v>
+        <v>9.252926683634682</v>
       </c>
       <c r="L3">
-        <v>6.695299663320406</v>
+        <v>9.751873418654027</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.5965798642079</v>
+        <v>19.21249427670219</v>
       </c>
       <c r="O3">
-        <v>15.53537441673243</v>
+        <v>23.97201195760561</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.43294941616455</v>
+        <v>11.68376696587798</v>
       </c>
       <c r="C4">
-        <v>6.405138131695185</v>
+        <v>7.749725850356129</v>
       </c>
       <c r="D4">
-        <v>4.824554888005707</v>
+        <v>5.445647036927015</v>
       </c>
       <c r="E4">
-        <v>7.49479656034486</v>
+        <v>11.59861685727043</v>
       </c>
       <c r="F4">
-        <v>18.596317396167</v>
+        <v>26.68775224722922</v>
       </c>
       <c r="I4">
-        <v>15.21420159561759</v>
+        <v>24.04722864910934</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.36139583242601</v>
+        <v>9.141145780802068</v>
       </c>
       <c r="L4">
-        <v>6.567449991047231</v>
+        <v>9.744480418479293</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.71563675389847</v>
+        <v>19.249459744403</v>
       </c>
       <c r="O4">
-        <v>15.52517347867701</v>
+        <v>24.01630033891879</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.17445206044344</v>
+        <v>11.61884015142188</v>
       </c>
       <c r="C5">
-        <v>6.374913968826339</v>
+        <v>7.740735523568848</v>
       </c>
       <c r="D5">
-        <v>4.784198952261331</v>
+        <v>5.431795931979114</v>
       </c>
       <c r="E5">
-        <v>7.465793854509091</v>
+        <v>11.60222110865911</v>
       </c>
       <c r="F5">
-        <v>18.52480825421465</v>
+        <v>26.69924887635827</v>
       </c>
       <c r="I5">
-        <v>15.24083169685349</v>
+        <v>24.06975541000665</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.17894359679213</v>
+        <v>9.095571915532986</v>
       </c>
       <c r="L5">
-        <v>6.51546123550766</v>
+        <v>9.741893993363067</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.76485288608779</v>
+        <v>19.2649426252255</v>
       </c>
       <c r="O5">
-        <v>15.52392727279581</v>
+        <v>24.03551708753019</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.13099988344628</v>
+        <v>11.60805637304841</v>
       </c>
       <c r="C6">
-        <v>6.369878154115161</v>
+        <v>7.739237709746359</v>
       </c>
       <c r="D6">
-        <v>4.77745414152373</v>
+        <v>5.429484112745891</v>
       </c>
       <c r="E6">
-        <v>7.461032040533437</v>
+        <v>11.60285076176933</v>
       </c>
       <c r="F6">
-        <v>18.51313650489493</v>
+        <v>26.70125469272138</v>
       </c>
       <c r="I6">
-        <v>15.24540566948007</v>
+        <v>24.07355933556625</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.14831526404346</v>
+        <v>9.088004884535614</v>
       </c>
       <c r="L6">
-        <v>6.506837506761519</v>
+        <v>9.74149033632621</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.77306795661465</v>
+        <v>19.26753889712439</v>
       </c>
       <c r="O6">
-        <v>15.5238933311427</v>
+        <v>24.03877856229984</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.4294986568689</v>
+        <v>11.68289158428295</v>
       </c>
       <c r="C7">
-        <v>6.404731677417655</v>
+        <v>7.749604938791737</v>
       </c>
       <c r="D7">
-        <v>4.824013588701029</v>
+        <v>5.445461034353348</v>
       </c>
       <c r="E7">
-        <v>7.494401807026378</v>
+        <v>11.59866337605382</v>
       </c>
       <c r="F7">
-        <v>18.59533943951003</v>
+        <v>26.68790080346044</v>
       </c>
       <c r="I7">
-        <v>15.21455048373413</v>
+        <v>24.04752820394385</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.35895752774457</v>
+        <v>9.140531163766783</v>
       </c>
       <c r="L7">
-        <v>6.566748301329565</v>
+        <v>9.744443807813489</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.71629764395347</v>
+        <v>19.24966685321439</v>
       </c>
       <c r="O7">
-        <v>15.5251450130659</v>
+        <v>24.01655477218306</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.67015518207341</v>
+        <v>12.01207071404892</v>
       </c>
       <c r="C8">
-        <v>6.555917863766816</v>
+        <v>7.7946136757867</v>
       </c>
       <c r="D8">
-        <v>5.022875166089047</v>
+        <v>5.51420184035591</v>
       </c>
       <c r="E8">
-        <v>7.649379114284923</v>
+        <v>11.58471366770218</v>
       </c>
       <c r="F8">
-        <v>18.98742811620569</v>
+        <v>26.64305751224538</v>
       </c>
       <c r="I8">
-        <v>15.10116159886556</v>
+        <v>23.94187511864747</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.2398533586905</v>
+        <v>9.371958097377938</v>
       </c>
       <c r="L8">
-        <v>6.831894543639962</v>
+        <v>9.76121232099957</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.47187463217676</v>
+        <v>19.17447801559574</v>
       </c>
       <c r="O8">
-        <v>15.55647626658281</v>
+        <v>23.92875210476643</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.83110776628506</v>
+        <v>12.6478160472391</v>
       </c>
       <c r="C9">
-        <v>6.841873264388878</v>
+        <v>7.880065451616209</v>
       </c>
       <c r="D9">
-        <v>5.387137852994087</v>
+        <v>5.642310592605126</v>
       </c>
       <c r="E9">
-        <v>7.979603943648912</v>
+        <v>11.57360080537385</v>
       </c>
       <c r="F9">
-        <v>19.86036303793273</v>
+        <v>26.60581671573273</v>
       </c>
       <c r="I9">
-        <v>14.96723999264862</v>
+        <v>23.76786090017813</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.79059753052292</v>
+        <v>9.820533568007592</v>
       </c>
       <c r="L9">
-        <v>7.349920675303348</v>
+        <v>9.80733807796272</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.01318119533992</v>
+        <v>19.04016478107055</v>
       </c>
       <c r="O9">
-        <v>15.71680426910103</v>
+        <v>23.79357204852329</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.2559790237562</v>
+        <v>13.10391677660666</v>
       </c>
       <c r="C10">
-        <v>7.044663795424516</v>
+        <v>7.94100103724081</v>
       </c>
       <c r="D10">
-        <v>5.637594039482728</v>
+        <v>5.732044923334892</v>
       </c>
       <c r="E10">
-        <v>8.236845785786178</v>
+        <v>11.5752981343789</v>
       </c>
       <c r="F10">
-        <v>20.5631004395551</v>
+        <v>26.60937968931779</v>
       </c>
       <c r="I10">
-        <v>14.9290575889463</v>
+        <v>23.66027476616907</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.82159898585625</v>
+        <v>10.14353965717149</v>
       </c>
       <c r="L10">
-        <v>7.72561193003375</v>
+        <v>9.849114170829568</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.68746239299729</v>
+        <v>18.94941055842205</v>
       </c>
       <c r="O10">
-        <v>15.90017699180226</v>
+        <v>23.71689873241209</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.86950921163913</v>
+        <v>13.3080477727507</v>
       </c>
       <c r="C11">
-        <v>7.135171844359209</v>
+        <v>7.968293261224519</v>
       </c>
       <c r="D11">
-        <v>5.747547082931298</v>
+        <v>5.771852039404273</v>
       </c>
       <c r="E11">
-        <v>8.35673485385777</v>
+        <v>11.57819981610829</v>
       </c>
       <c r="F11">
-        <v>20.89557309256202</v>
+        <v>26.61770420217636</v>
       </c>
       <c r="I11">
-        <v>14.92615910356871</v>
+        <v>23.61573911751093</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.26715688550802</v>
+        <v>10.28839555327013</v>
       </c>
       <c r="L11">
-        <v>7.894787780118411</v>
+        <v>9.869786500057007</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.54143436995789</v>
+        <v>18.90982808009804</v>
       </c>
       <c r="O11">
-        <v>15.99888749251492</v>
+        <v>23.68695088983071</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.09690903048144</v>
+        <v>13.38479004859974</v>
       </c>
       <c r="C12">
-        <v>7.169182578284149</v>
+        <v>7.978564171255329</v>
       </c>
       <c r="D12">
-        <v>5.788592934227195</v>
+        <v>5.786775071971398</v>
       </c>
       <c r="E12">
-        <v>8.40252009311838</v>
+        <v>11.57960350616716</v>
       </c>
       <c r="F12">
-        <v>21.02326059142683</v>
+        <v>26.62181816394605</v>
       </c>
       <c r="I12">
-        <v>14.92725992592781</v>
+        <v>23.59950889257119</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.43251811586352</v>
+        <v>10.34289794469997</v>
       </c>
       <c r="L12">
-        <v>7.958554083225039</v>
+        <v>9.877850148114655</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.48641961026764</v>
+        <v>18.89508272776666</v>
       </c>
       <c r="O12">
-        <v>16.03854536583732</v>
+        <v>23.6763206027537</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.04815286533966</v>
+        <v>13.36828818258214</v>
       </c>
       <c r="C13">
-        <v>7.161869618976501</v>
+        <v>7.976355036953383</v>
       </c>
       <c r="D13">
-        <v>5.779779528625384</v>
+        <v>5.78356793132672</v>
       </c>
       <c r="E13">
-        <v>8.392642675314315</v>
+        <v>11.5792876597995</v>
       </c>
       <c r="F13">
-        <v>20.99568214385113</v>
+        <v>26.62088942460437</v>
       </c>
       <c r="I13">
-        <v>14.92692318175739</v>
+        <v>23.60297613003946</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.39705391348612</v>
+        <v>10.33117630523461</v>
       </c>
       <c r="L13">
-        <v>7.944834777941283</v>
+        <v>9.876103096783496</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.49825586027199</v>
+        <v>18.8982475829179</v>
       </c>
       <c r="O13">
-        <v>16.02990178921454</v>
+        <v>23.67857841651353</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.88831604875083</v>
+        <v>13.31437299903569</v>
       </c>
       <c r="C14">
-        <v>7.13797525695425</v>
+        <v>7.96913955374393</v>
       </c>
       <c r="D14">
-        <v>5.750935891327824</v>
+        <v>5.773082823634621</v>
       </c>
       <c r="E14">
-        <v>8.360494049109798</v>
+        <v>11.57830919649062</v>
       </c>
       <c r="F14">
-        <v>20.90604249888055</v>
+        <v>26.61802340357051</v>
       </c>
       <c r="I14">
-        <v>14.9262049308195</v>
+        <v>23.61439112654329</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.28082855171312</v>
+        <v>10.29288682794576</v>
       </c>
       <c r="L14">
-        <v>7.900040077749719</v>
+        <v>9.870445207883719</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.53690275326328</v>
+        <v>18.90861009367873</v>
       </c>
       <c r="O14">
-        <v>16.00210407025993</v>
+        <v>23.68606208768923</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.78977081935809</v>
+        <v>13.28127360128556</v>
       </c>
       <c r="C15">
-        <v>7.123304724471638</v>
+        <v>7.964711443115757</v>
       </c>
       <c r="D15">
-        <v>5.733190859721466</v>
+        <v>5.766640564892814</v>
       </c>
       <c r="E15">
-        <v>8.340851562261118</v>
+        <v>11.57774952172614</v>
       </c>
       <c r="F15">
-        <v>20.85136683618358</v>
+        <v>26.61639303535638</v>
       </c>
       <c r="I15">
-        <v>14.92605479409278</v>
+        <v>23.62146579319928</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.20919974687742</v>
+        <v>10.26938616094701</v>
       </c>
       <c r="L15">
-        <v>7.872562033960024</v>
+        <v>9.867010119700828</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.56061115532574</v>
+        <v>18.91498913221535</v>
       </c>
       <c r="O15">
-        <v>15.98537614772716</v>
+        <v>23.69073858887813</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.21519053615351</v>
+        <v>13.09050230327968</v>
       </c>
       <c r="C16">
-        <v>7.03871274743212</v>
+        <v>7.939208600958775</v>
       </c>
       <c r="D16">
-        <v>5.63032660309057</v>
+        <v>5.729422582481663</v>
       </c>
       <c r="E16">
-        <v>8.229066177715758</v>
+        <v>11.57515124425598</v>
       </c>
       <c r="F16">
-        <v>20.54162553826001</v>
+        <v>26.60897037680411</v>
       </c>
       <c r="I16">
-        <v>14.92954821284382</v>
+        <v>23.66327401007924</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.79200959485431</v>
+        <v>10.13402658029048</v>
       </c>
       <c r="L16">
-        <v>7.714516832967119</v>
+        <v>9.847796383836616</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.69704666332447</v>
+        <v>18.95203152371468</v>
       </c>
       <c r="O16">
-        <v>15.89404063964293</v>
+        <v>23.71895523006378</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.85386583758479</v>
+        <v>12.97255638267748</v>
       </c>
       <c r="C17">
-        <v>6.98636292330438</v>
+        <v>7.923452068694065</v>
       </c>
       <c r="D17">
-        <v>5.566189142248994</v>
+        <v>5.706327144515662</v>
       </c>
       <c r="E17">
-        <v>8.161204943160714</v>
+        <v>11.57410181903323</v>
       </c>
       <c r="F17">
-        <v>20.354848945627</v>
+        <v>26.60613238297477</v>
       </c>
       <c r="I17">
-        <v>14.93548075444238</v>
+        <v>23.69005108738326</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.5300762377337</v>
+        <v>10.05041677820497</v>
       </c>
       <c r="L17">
-        <v>7.617082161113556</v>
+        <v>9.836433597326998</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.78127678442442</v>
+        <v>18.9751909988872</v>
       </c>
       <c r="O17">
-        <v>15.84198400189911</v>
+        <v>23.7375291406822</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.64277673933113</v>
+        <v>12.9044057612781</v>
       </c>
       <c r="C18">
-        <v>6.956089321331885</v>
+        <v>7.914349225858158</v>
       </c>
       <c r="D18">
-        <v>5.528925228697053</v>
+        <v>5.692948174549902</v>
       </c>
       <c r="E18">
-        <v>8.122444508420591</v>
+        <v>11.57369875327278</v>
       </c>
       <c r="F18">
-        <v>20.24862744732663</v>
+        <v>26.60513121720914</v>
       </c>
       <c r="I18">
-        <v>14.94024792240986</v>
+        <v>23.70586719831731</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.37721087645249</v>
+        <v>10.00213366866289</v>
       </c>
       <c r="L18">
-        <v>7.560880163419714</v>
+        <v>9.830055320117063</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.82992703839494</v>
+        <v>18.98867198763458</v>
       </c>
       <c r="O18">
-        <v>15.81347742861199</v>
+        <v>23.74867645158696</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.57074331982923</v>
+        <v>12.8812800660342</v>
       </c>
       <c r="C19">
-        <v>6.945811536156874</v>
+        <v>7.911260350286615</v>
       </c>
       <c r="D19">
-        <v>5.516244724181769</v>
+        <v>5.68840211892694</v>
       </c>
       <c r="E19">
-        <v>8.109368355751002</v>
+        <v>11.57359676227037</v>
       </c>
       <c r="F19">
-        <v>20.21287164715907</v>
+        <v>26.60490070254779</v>
       </c>
       <c r="I19">
-        <v>14.94209115897036</v>
+        <v>23.71129344923873</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.32507381409758</v>
+        <v>9.985754333433098</v>
       </c>
       <c r="L19">
-        <v>7.541825206624441</v>
+        <v>9.827922890472667</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.84643484531625</v>
+        <v>18.99326397869758</v>
       </c>
       <c r="O19">
-        <v>15.80406957455499</v>
+        <v>23.75253040790471</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.89266697853765</v>
+        <v>12.98514470506759</v>
       </c>
       <c r="C20">
-        <v>6.991952652200702</v>
+        <v>7.92513354747163</v>
       </c>
       <c r="D20">
-        <v>5.57305550778078</v>
+        <v>5.708795573271746</v>
       </c>
       <c r="E20">
-        <v>8.168400978535976</v>
+        <v>11.57419278657865</v>
       </c>
       <c r="F20">
-        <v>20.3746070450004</v>
+        <v>26.60636918260634</v>
       </c>
       <c r="I20">
-        <v>14.93470814919367</v>
+        <v>23.68715770100486</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.55818797805505</v>
+        <v>10.05933754245591</v>
       </c>
       <c r="L20">
-        <v>7.627471194445154</v>
+        <v>9.837626936683927</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.77228948039151</v>
+        <v>18.97270905362501</v>
       </c>
       <c r="O20">
-        <v>15.84737641223724</v>
+        <v>23.73550387549545</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.93539739459549</v>
+        <v>13.33022490981768</v>
       </c>
       <c r="C21">
-        <v>7.145000829121202</v>
+        <v>7.971260675105526</v>
       </c>
       <c r="D21">
-        <v>5.759424141276871</v>
+        <v>5.776166695241125</v>
       </c>
       <c r="E21">
-        <v>8.369926615465454</v>
+        <v>11.5785883319521</v>
       </c>
       <c r="F21">
-        <v>20.93232374486652</v>
+        <v>26.61883914703964</v>
       </c>
       <c r="I21">
-        <v>14.92635529006306</v>
+        <v>23.6110210392484</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.31505788850751</v>
+        <v>10.30414331252311</v>
       </c>
       <c r="L21">
-        <v>7.913205779769894</v>
+        <v>9.872100712351688</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.52554375546593</v>
+        <v>18.90555976843383</v>
       </c>
       <c r="O21">
-        <v>16.01020649126247</v>
+        <v>23.68384466560761</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.5881668914147</v>
+        <v>13.55247251133385</v>
       </c>
       <c r="C22">
-        <v>7.243490905081663</v>
+        <v>8.001032829154529</v>
       </c>
       <c r="D22">
-        <v>5.877775259937853</v>
+        <v>5.819314777366527</v>
       </c>
       <c r="E22">
-        <v>8.503872750186661</v>
+        <v>11.58323743435738</v>
       </c>
       <c r="F22">
-        <v>21.30721803967112</v>
+        <v>26.63259257871161</v>
       </c>
       <c r="I22">
-        <v>14.93376578166944</v>
+        <v>23.56495984128346</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.79012918155671</v>
+        <v>10.46206784295275</v>
       </c>
       <c r="L22">
-        <v>8.098201209598695</v>
+        <v>9.896001682267306</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.36591721001436</v>
+        <v>18.86309364759249</v>
       </c>
       <c r="O22">
-        <v>16.12993895770438</v>
+        <v>23.65422306656894</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.24238144175615</v>
+        <v>13.43417882414672</v>
       </c>
       <c r="C23">
-        <v>7.191069034068226</v>
+        <v>7.985177989911685</v>
       </c>
       <c r="D23">
-        <v>5.814930348730124</v>
+        <v>5.796368331222883</v>
       </c>
       <c r="E23">
-        <v>8.432186969960457</v>
+        <v>11.58059407401657</v>
       </c>
       <c r="F23">
-        <v>21.10619598733114</v>
+        <v>26.62474035947553</v>
       </c>
       <c r="I23">
-        <v>14.92859389489849</v>
+        <v>23.58920486294765</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.53836207880206</v>
+        <v>10.37798639862419</v>
       </c>
       <c r="L23">
-        <v>7.99964002174052</v>
+        <v>9.883121417262931</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.45097194760709</v>
+        <v>18.88562905697019</v>
       </c>
       <c r="O23">
-        <v>16.06479226793645</v>
+        <v>23.66965344220572</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.87513544828435</v>
+        <v>12.9794545837632</v>
       </c>
       <c r="C24">
-        <v>6.98942608611355</v>
+        <v>7.924373488414011</v>
       </c>
       <c r="D24">
-        <v>5.569952438600175</v>
+        <v>5.707679911113706</v>
       </c>
       <c r="E24">
-        <v>8.165146858087896</v>
+        <v>11.57415103626326</v>
       </c>
       <c r="F24">
-        <v>20.36567079470869</v>
+        <v>26.60626016156998</v>
       </c>
       <c r="I24">
-        <v>14.93505322780755</v>
+        <v>23.6884644877552</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.54548575139406</v>
+        <v>10.05530512974318</v>
       </c>
       <c r="L24">
-        <v>7.622774886539752</v>
+        <v>9.837086946882796</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.77635193709167</v>
+        <v>18.97383062297908</v>
       </c>
       <c r="O24">
-        <v>15.8449340819773</v>
+        <v>23.73641803731224</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.27532021624046</v>
+        <v>12.47741139755548</v>
       </c>
       <c r="C25">
-        <v>6.765737377382278</v>
+        <v>7.857263008752597</v>
       </c>
       <c r="D25">
-        <v>5.291512999244183</v>
+        <v>5.60840241062929</v>
       </c>
       <c r="E25">
-        <v>7.887594750814676</v>
+        <v>11.57487169976241</v>
       </c>
       <c r="F25">
-        <v>19.61325456630842</v>
+        <v>26.61045916878754</v>
       </c>
       <c r="I25">
-        <v>14.99336090517312</v>
+        <v>23.81138094591081</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.39009582770566</v>
+        <v>9.700100328178921</v>
       </c>
       <c r="L25">
-        <v>7.210393468073282</v>
+        <v>9.793460124805851</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.13519145170947</v>
+        <v>19.07510250535235</v>
       </c>
       <c r="O25">
-        <v>15.66228295593882</v>
+        <v>23.82617115558725</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_134/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_134/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.10079634308037</v>
+        <v>13.98779490604077</v>
       </c>
       <c r="C2">
-        <v>7.806623520735326</v>
+        <v>6.596205518716053</v>
       </c>
       <c r="D2">
-        <v>5.532385992127314</v>
+        <v>5.075079740085742</v>
       </c>
       <c r="E2">
-        <v>11.58203427379016</v>
+        <v>7.693200970167793</v>
       </c>
       <c r="F2">
-        <v>26.63433572022027</v>
+        <v>19.10076352937851</v>
       </c>
       <c r="I2">
-        <v>23.91549173517083</v>
+        <v>15.07619538779933</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.43443779019503</v>
+        <v>11.46662056121333</v>
       </c>
       <c r="L2">
-        <v>9.766658145443696</v>
+        <v>6.903756657919059</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.15499729034599</v>
+        <v>12.40708918401031</v>
       </c>
       <c r="O2">
-        <v>23.90746244434957</v>
+        <v>15.57145222558618</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.84286945263442</v>
+        <v>13.04585297669107</v>
       </c>
       <c r="C3">
-        <v>7.771582587444184</v>
+        <v>6.478588989101364</v>
       </c>
       <c r="D3">
-        <v>5.479148507636935</v>
+        <v>4.921767276060669</v>
       </c>
       <c r="E3">
-        <v>11.59103829459997</v>
+        <v>7.568141603893273</v>
       </c>
       <c r="F3">
-        <v>26.66347591426661</v>
+        <v>18.78000855545613</v>
       </c>
       <c r="I3">
-        <v>23.99452504884313</v>
+        <v>15.15514454120064</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.252926683634682</v>
+        <v>10.79556253814021</v>
       </c>
       <c r="L3">
-        <v>9.751873418654027</v>
+        <v>6.695299663320407</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.21249427670219</v>
+        <v>12.5965798642079</v>
       </c>
       <c r="O3">
-        <v>23.97201195760561</v>
+        <v>15.53537441673247</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.68376696587798</v>
+        <v>12.4329494161645</v>
       </c>
       <c r="C4">
-        <v>7.749725850356129</v>
+        <v>6.405138131695693</v>
       </c>
       <c r="D4">
-        <v>5.445647036927015</v>
+        <v>4.824554888005752</v>
       </c>
       <c r="E4">
-        <v>11.59861685727043</v>
+        <v>7.494796560344907</v>
       </c>
       <c r="F4">
-        <v>26.68775224722922</v>
+        <v>18.59631739616694</v>
       </c>
       <c r="I4">
-        <v>24.04722864910934</v>
+        <v>15.21420159561769</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.141145780802068</v>
+        <v>10.36139583242603</v>
       </c>
       <c r="L4">
-        <v>9.744480418479293</v>
+        <v>6.567449991047162</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.249459744403</v>
+        <v>12.71563675389847</v>
       </c>
       <c r="O4">
-        <v>24.01630033891879</v>
+        <v>15.52517347867697</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.61884015142188</v>
+        <v>12.17445206044348</v>
       </c>
       <c r="C5">
-        <v>7.740735523568848</v>
+        <v>6.374913968826109</v>
       </c>
       <c r="D5">
-        <v>5.431795931979114</v>
+        <v>4.78419895226144</v>
       </c>
       <c r="E5">
-        <v>11.60222110865911</v>
+        <v>7.46579385450909</v>
       </c>
       <c r="F5">
-        <v>26.69924887635827</v>
+        <v>18.52480825421461</v>
       </c>
       <c r="I5">
-        <v>24.06975541000665</v>
+        <v>15.24083169685342</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.095571915532986</v>
+        <v>10.17894359679215</v>
       </c>
       <c r="L5">
-        <v>9.741893993363067</v>
+        <v>6.515461235507707</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.2649426252255</v>
+        <v>12.76485288608779</v>
       </c>
       <c r="O5">
-        <v>24.03551708753019</v>
+        <v>15.52392727279581</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.60805637304841</v>
+        <v>12.13099988344631</v>
       </c>
       <c r="C6">
-        <v>7.739237709746359</v>
+        <v>6.369878154115276</v>
       </c>
       <c r="D6">
-        <v>5.429484112745891</v>
+        <v>4.777454141523676</v>
       </c>
       <c r="E6">
-        <v>11.60285076176933</v>
+        <v>7.461032040533487</v>
       </c>
       <c r="F6">
-        <v>26.70125469272138</v>
+        <v>18.5131365048949</v>
       </c>
       <c r="I6">
-        <v>24.07355933556625</v>
+        <v>15.24540566947998</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.088004884535614</v>
+        <v>10.1483152640435</v>
       </c>
       <c r="L6">
-        <v>9.74149033632621</v>
+        <v>6.506837506761563</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.26753889712439</v>
+        <v>12.77306795661461</v>
       </c>
       <c r="O6">
-        <v>24.03877856229984</v>
+        <v>15.5238933311426</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.68289158428295</v>
+        <v>12.42949865686898</v>
       </c>
       <c r="C7">
-        <v>7.749604938791737</v>
+        <v>6.404731677417526</v>
       </c>
       <c r="D7">
-        <v>5.445461034353348</v>
+        <v>4.824013588701015</v>
       </c>
       <c r="E7">
-        <v>11.59866337605382</v>
+        <v>7.494401807026324</v>
       </c>
       <c r="F7">
-        <v>26.68790080346044</v>
+        <v>18.59533943951013</v>
       </c>
       <c r="I7">
-        <v>24.04752820394385</v>
+        <v>15.21455048373414</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.140531163766783</v>
+        <v>10.3589575277446</v>
       </c>
       <c r="L7">
-        <v>9.744443807813489</v>
+        <v>6.566748301329552</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.24966685321439</v>
+        <v>12.71629764395353</v>
       </c>
       <c r="O7">
-        <v>24.01655477218306</v>
+        <v>15.52514501306593</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.01207071404892</v>
+        <v>13.67015518207348</v>
       </c>
       <c r="C8">
-        <v>7.7946136757867</v>
+        <v>6.555917863766803</v>
       </c>
       <c r="D8">
-        <v>5.51420184035591</v>
+        <v>5.022875166089106</v>
       </c>
       <c r="E8">
-        <v>11.58471366770218</v>
+        <v>7.649379114284882</v>
       </c>
       <c r="F8">
-        <v>26.64305751224538</v>
+        <v>18.98742811620559</v>
       </c>
       <c r="I8">
-        <v>23.94187511864747</v>
+        <v>15.10116159886553</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.371958097377938</v>
+        <v>11.23985335869055</v>
       </c>
       <c r="L8">
-        <v>9.76121232099957</v>
+        <v>6.831894543639925</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.17447801559574</v>
+        <v>12.47187463217676</v>
       </c>
       <c r="O8">
-        <v>23.92875210476643</v>
+        <v>15.55647626658275</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.6478160472391</v>
+        <v>15.83110776628508</v>
       </c>
       <c r="C9">
-        <v>7.880065451616209</v>
+        <v>6.841873264388994</v>
       </c>
       <c r="D9">
-        <v>5.642310592605126</v>
+        <v>5.387137852994027</v>
       </c>
       <c r="E9">
-        <v>11.57360080537385</v>
+        <v>7.979603943648927</v>
       </c>
       <c r="F9">
-        <v>26.60581671573273</v>
+        <v>19.86036303793264</v>
       </c>
       <c r="I9">
-        <v>23.76786090017813</v>
+        <v>14.96723999264853</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.820533568007592</v>
+        <v>12.79059753052296</v>
       </c>
       <c r="L9">
-        <v>9.80733807796272</v>
+        <v>7.349920675303355</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.04016478107055</v>
+        <v>12.01318119533985</v>
       </c>
       <c r="O9">
-        <v>23.79357204852329</v>
+        <v>15.71680426910096</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.10391677660666</v>
+        <v>17.2559790237562</v>
       </c>
       <c r="C10">
-        <v>7.94100103724081</v>
+        <v>7.044663795424499</v>
       </c>
       <c r="D10">
-        <v>5.732044923334892</v>
+        <v>5.637594039482678</v>
       </c>
       <c r="E10">
-        <v>11.5752981343789</v>
+        <v>8.236845785786157</v>
       </c>
       <c r="F10">
-        <v>26.60937968931779</v>
+        <v>20.56310043955506</v>
       </c>
       <c r="I10">
-        <v>23.66027476616907</v>
+        <v>14.92905758894625</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.14353965717149</v>
+        <v>13.82159898585627</v>
       </c>
       <c r="L10">
-        <v>9.849114170829568</v>
+        <v>7.725611930033748</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.94941055842205</v>
+        <v>11.68746239299726</v>
       </c>
       <c r="O10">
-        <v>23.71689873241209</v>
+        <v>15.90017699180219</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.3080477727507</v>
+        <v>17.86950921163912</v>
       </c>
       <c r="C11">
-        <v>7.968293261224519</v>
+        <v>7.135171844359434</v>
       </c>
       <c r="D11">
-        <v>5.771852039404273</v>
+        <v>5.747547082931178</v>
       </c>
       <c r="E11">
-        <v>11.57819981610829</v>
+        <v>8.356734853857892</v>
       </c>
       <c r="F11">
-        <v>26.61770420217636</v>
+        <v>20.89557309256199</v>
       </c>
       <c r="I11">
-        <v>23.61573911751093</v>
+        <v>14.92615910356874</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.28839555327013</v>
+        <v>14.26715688550805</v>
       </c>
       <c r="L11">
-        <v>9.869786500057007</v>
+        <v>7.894787780118429</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.90982808009804</v>
+        <v>11.54143436995786</v>
       </c>
       <c r="O11">
-        <v>23.68695088983071</v>
+        <v>15.99888749251486</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.38479004859974</v>
+        <v>18.09690903048145</v>
       </c>
       <c r="C12">
-        <v>7.978564171255329</v>
+        <v>7.169182578284357</v>
       </c>
       <c r="D12">
-        <v>5.786775071971398</v>
+        <v>5.788592934227291</v>
       </c>
       <c r="E12">
-        <v>11.57960350616716</v>
+        <v>8.402520093118429</v>
       </c>
       <c r="F12">
-        <v>26.62181816394605</v>
+        <v>21.02326059142683</v>
       </c>
       <c r="I12">
-        <v>23.59950889257119</v>
+        <v>14.92725992592784</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.34289794469997</v>
+        <v>14.43251811586355</v>
       </c>
       <c r="L12">
-        <v>9.877850148114655</v>
+        <v>7.958554083225043</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.89508272776666</v>
+        <v>11.48641961026761</v>
       </c>
       <c r="O12">
-        <v>23.6763206027537</v>
+        <v>16.03854536583733</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.36828818258214</v>
+        <v>18.04815286533968</v>
       </c>
       <c r="C13">
-        <v>7.976355036953383</v>
+        <v>7.161869618976621</v>
       </c>
       <c r="D13">
-        <v>5.78356793132672</v>
+        <v>5.779779528625307</v>
       </c>
       <c r="E13">
-        <v>11.5792876597995</v>
+        <v>8.392642675314308</v>
       </c>
       <c r="F13">
-        <v>26.62088942460437</v>
+        <v>20.99568214385117</v>
       </c>
       <c r="I13">
-        <v>23.60297613003946</v>
+        <v>14.92692318175744</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.33117630523461</v>
+        <v>14.39705391348616</v>
       </c>
       <c r="L13">
-        <v>9.876103096783496</v>
+        <v>7.944834777941274</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.8982475829179</v>
+        <v>11.49825586027199</v>
       </c>
       <c r="O13">
-        <v>23.67857841651353</v>
+        <v>16.02990178921453</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.31437299903569</v>
+        <v>17.8883160487508</v>
       </c>
       <c r="C14">
-        <v>7.96913955374393</v>
+        <v>7.137975256954343</v>
       </c>
       <c r="D14">
-        <v>5.773082823634621</v>
+        <v>5.750935891327873</v>
       </c>
       <c r="E14">
-        <v>11.57830919649062</v>
+        <v>8.360494049109759</v>
       </c>
       <c r="F14">
-        <v>26.61802340357051</v>
+        <v>20.90604249888064</v>
       </c>
       <c r="I14">
-        <v>23.61439112654329</v>
+        <v>14.92620493081963</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.29288682794576</v>
+        <v>14.28082855171311</v>
       </c>
       <c r="L14">
-        <v>9.870445207883719</v>
+        <v>7.90004007774971</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.90861009367873</v>
+        <v>11.53690275326341</v>
       </c>
       <c r="O14">
-        <v>23.68606208768923</v>
+        <v>16.00210407026002</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.28127360128556</v>
+        <v>17.78977081935805</v>
       </c>
       <c r="C15">
-        <v>7.964711443115757</v>
+        <v>7.123304724471527</v>
       </c>
       <c r="D15">
-        <v>5.766640564892814</v>
+        <v>5.733190859721502</v>
       </c>
       <c r="E15">
-        <v>11.57774952172614</v>
+        <v>8.340851562261049</v>
       </c>
       <c r="F15">
-        <v>26.61639303535638</v>
+        <v>20.8513668361836</v>
       </c>
       <c r="I15">
-        <v>23.62146579319928</v>
+        <v>14.9260547940928</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.26938616094701</v>
+        <v>14.20919974687735</v>
       </c>
       <c r="L15">
-        <v>9.867010119700828</v>
+        <v>7.872562033960002</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.91498913221535</v>
+        <v>11.56061115532574</v>
       </c>
       <c r="O15">
-        <v>23.69073858887813</v>
+        <v>15.98537614772724</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.09050230327968</v>
+        <v>17.21519053615354</v>
       </c>
       <c r="C16">
-        <v>7.939208600958775</v>
+        <v>7.038712747432223</v>
       </c>
       <c r="D16">
-        <v>5.729422582481663</v>
+        <v>5.630326603090553</v>
       </c>
       <c r="E16">
-        <v>11.57515124425598</v>
+        <v>8.229066177715813</v>
       </c>
       <c r="F16">
-        <v>26.60897037680411</v>
+        <v>20.54162553825992</v>
       </c>
       <c r="I16">
-        <v>23.66327401007924</v>
+        <v>14.92954821284364</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.13402658029048</v>
+        <v>13.79200959485436</v>
       </c>
       <c r="L16">
-        <v>9.847796383836616</v>
+        <v>7.714516832967148</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.95203152371468</v>
+        <v>11.6970466633243</v>
       </c>
       <c r="O16">
-        <v>23.71895523006378</v>
+        <v>15.89404063964279</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.97255638267748</v>
+        <v>16.85386583758476</v>
       </c>
       <c r="C17">
-        <v>7.923452068694065</v>
+        <v>6.986362923304609</v>
       </c>
       <c r="D17">
-        <v>5.706327144515662</v>
+        <v>5.566189142249246</v>
       </c>
       <c r="E17">
-        <v>11.57410181903323</v>
+        <v>8.161204943160763</v>
       </c>
       <c r="F17">
-        <v>26.60613238297477</v>
+        <v>20.35484894562694</v>
       </c>
       <c r="I17">
-        <v>23.69005108738326</v>
+        <v>14.93548075444242</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.05041677820497</v>
+        <v>13.53007623773371</v>
       </c>
       <c r="L17">
-        <v>9.836433597326998</v>
+        <v>7.617082161113518</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.9751909988872</v>
+        <v>11.78127678442445</v>
       </c>
       <c r="O17">
-        <v>23.7375291406822</v>
+        <v>15.84198400189914</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.9044057612781</v>
+        <v>16.64277673933114</v>
       </c>
       <c r="C18">
-        <v>7.914349225858158</v>
+        <v>6.956089321331649</v>
       </c>
       <c r="D18">
-        <v>5.692948174549902</v>
+        <v>5.528925228697148</v>
       </c>
       <c r="E18">
-        <v>11.57369875327278</v>
+        <v>8.12244450842053</v>
       </c>
       <c r="F18">
-        <v>26.60513121720914</v>
+        <v>20.2486274473265</v>
       </c>
       <c r="I18">
-        <v>23.70586719831731</v>
+        <v>14.94024792240975</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.00213366866289</v>
+        <v>13.37721087645249</v>
       </c>
       <c r="L18">
-        <v>9.830055320117063</v>
+        <v>7.560880163419687</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.98867198763458</v>
+        <v>11.82992703839484</v>
       </c>
       <c r="O18">
-        <v>23.74867645158696</v>
+        <v>15.81347742861193</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.8812800660342</v>
+        <v>16.57074331982929</v>
       </c>
       <c r="C19">
-        <v>7.911260350286615</v>
+        <v>6.945811536156751</v>
       </c>
       <c r="D19">
-        <v>5.68840211892694</v>
+        <v>5.51624472418183</v>
       </c>
       <c r="E19">
-        <v>11.57359676227037</v>
+        <v>8.109368355750979</v>
       </c>
       <c r="F19">
-        <v>26.60490070254779</v>
+        <v>20.21287164715903</v>
       </c>
       <c r="I19">
-        <v>23.71129344923873</v>
+        <v>14.94209115897027</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.985754333433098</v>
+        <v>13.32507381409761</v>
       </c>
       <c r="L19">
-        <v>9.827922890472667</v>
+        <v>7.541825206624423</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.99326397869758</v>
+        <v>11.84643484531622</v>
       </c>
       <c r="O19">
-        <v>23.75253040790471</v>
+        <v>15.80406957455492</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.98514470506759</v>
+        <v>16.89266697853768</v>
       </c>
       <c r="C20">
-        <v>7.92513354747163</v>
+        <v>6.991952652200921</v>
       </c>
       <c r="D20">
-        <v>5.708795573271746</v>
+        <v>5.573055507780937</v>
       </c>
       <c r="E20">
-        <v>11.57419278657865</v>
+        <v>8.168400978535958</v>
       </c>
       <c r="F20">
-        <v>26.60636918260634</v>
+        <v>20.37460704500024</v>
       </c>
       <c r="I20">
-        <v>23.68715770100486</v>
+        <v>14.9347081491936</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.05933754245591</v>
+        <v>13.55818797805511</v>
       </c>
       <c r="L20">
-        <v>9.837626936683927</v>
+        <v>7.62747119444513</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.97270905362501</v>
+        <v>11.77228948039148</v>
       </c>
       <c r="O20">
-        <v>23.73550387549545</v>
+        <v>15.84737641223713</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.33022490981768</v>
+        <v>17.93539739459554</v>
       </c>
       <c r="C21">
-        <v>7.971260675105526</v>
+        <v>7.145000829121183</v>
       </c>
       <c r="D21">
-        <v>5.776166695241125</v>
+        <v>5.759424141276872</v>
       </c>
       <c r="E21">
-        <v>11.5785883319521</v>
+        <v>8.36992661546549</v>
       </c>
       <c r="F21">
-        <v>26.61883914703964</v>
+        <v>20.93232374486644</v>
       </c>
       <c r="I21">
-        <v>23.6110210392484</v>
+        <v>14.926355290063</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.30414331252311</v>
+        <v>14.31505788850756</v>
       </c>
       <c r="L21">
-        <v>9.872100712351688</v>
+        <v>7.913205779769888</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.90555976843383</v>
+        <v>11.5255437554659</v>
       </c>
       <c r="O21">
-        <v>23.68384466560761</v>
+        <v>16.01020649126238</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.55247251133385</v>
+        <v>18.58816689141473</v>
       </c>
       <c r="C22">
-        <v>8.001032829154529</v>
+        <v>7.243490905081655</v>
       </c>
       <c r="D22">
-        <v>5.819314777366527</v>
+        <v>5.877775259937888</v>
       </c>
       <c r="E22">
-        <v>11.58323743435738</v>
+        <v>8.503872750186629</v>
       </c>
       <c r="F22">
-        <v>26.63259257871161</v>
+        <v>21.30721803967116</v>
       </c>
       <c r="I22">
-        <v>23.56495984128346</v>
+        <v>14.93376578166949</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.46206784295275</v>
+        <v>14.79012918155669</v>
       </c>
       <c r="L22">
-        <v>9.896001682267306</v>
+        <v>8.098201209598704</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.86309364759249</v>
+        <v>11.36591721001439</v>
       </c>
       <c r="O22">
-        <v>23.65422306656894</v>
+        <v>16.12993895770444</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.43417882414672</v>
+        <v>18.24238144175624</v>
       </c>
       <c r="C23">
-        <v>7.985177989911685</v>
+        <v>7.191069034068438</v>
       </c>
       <c r="D23">
-        <v>5.796368331222883</v>
+        <v>5.814930348730064</v>
       </c>
       <c r="E23">
-        <v>11.58059407401657</v>
+        <v>8.432186969960494</v>
       </c>
       <c r="F23">
-        <v>26.62474035947553</v>
+        <v>21.10619598733104</v>
       </c>
       <c r="I23">
-        <v>23.58920486294765</v>
+        <v>14.92859389489835</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.37798639862419</v>
+        <v>14.53836207880214</v>
       </c>
       <c r="L23">
-        <v>9.883121417262931</v>
+        <v>7.99964002174051</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.88562905697019</v>
+        <v>11.45097194760703</v>
       </c>
       <c r="O23">
-        <v>23.66965344220572</v>
+        <v>16.06479226793631</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.9794545837632</v>
+        <v>16.87513544828439</v>
       </c>
       <c r="C24">
-        <v>7.924373488414011</v>
+        <v>6.989426086113425</v>
       </c>
       <c r="D24">
-        <v>5.707679911113706</v>
+        <v>5.569952438600278</v>
       </c>
       <c r="E24">
-        <v>11.57415103626326</v>
+        <v>8.165146858087894</v>
       </c>
       <c r="F24">
-        <v>26.60626016156998</v>
+        <v>20.36567079470861</v>
       </c>
       <c r="I24">
-        <v>23.6884644877552</v>
+        <v>14.93505322780746</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.05530512974318</v>
+        <v>13.54548575139406</v>
       </c>
       <c r="L24">
-        <v>9.837086946882796</v>
+        <v>7.622774886539785</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.97383062297908</v>
+        <v>11.77635193709164</v>
       </c>
       <c r="O24">
-        <v>23.73641803731224</v>
+        <v>15.84493408197724</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.47741139755548</v>
+        <v>15.2753202162405</v>
       </c>
       <c r="C25">
-        <v>7.857263008752597</v>
+        <v>6.765737377382155</v>
       </c>
       <c r="D25">
-        <v>5.60840241062929</v>
+        <v>5.291512999244017</v>
       </c>
       <c r="E25">
-        <v>11.57487169976241</v>
+        <v>7.887594750814686</v>
       </c>
       <c r="F25">
-        <v>26.61045916878754</v>
+        <v>19.61325456630855</v>
       </c>
       <c r="I25">
-        <v>23.81138094591081</v>
+        <v>14.99336090517313</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.700100328178921</v>
+        <v>12.39009582770567</v>
       </c>
       <c r="L25">
-        <v>9.793460124805851</v>
+        <v>7.210393468073301</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.07510250535235</v>
+        <v>12.13519145170947</v>
       </c>
       <c r="O25">
-        <v>23.82617115558725</v>
+        <v>15.66228295593886</v>
       </c>
     </row>
   </sheetData>
